--- a/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2019-20.xlsx
+++ b/player_d_dash/defense-dash-gt15_SeasonType_Playoffs_Season_2019-20.xlsx
@@ -2534,22 +2534,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Jusuf Nurkic</t>
+          <t>Evan Fournier</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>35.5%</t>
+          <t>55.0%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>51.5</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>39.6</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>11.9</t>
         </is>
       </c>
     </row>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Evan Fournier</t>
+          <t>Jusuf Nurkic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>55.0%</t>
+          <t>35.5%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>39.6</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>3.5</t>
         </is>
       </c>
     </row>
@@ -3184,42 +3184,42 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>53.8%</t>
+          <t>43.1%</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3229,17 +3229,17 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>36.1</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>1.9</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -3249,42 +3249,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>43.1%</t>
+          <t>53.8%</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3294,17 +3294,17 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.1</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.9</t>
         </is>
       </c>
     </row>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Malcolm Brogdon</t>
+          <t>Myles Turner</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3669,12 +3669,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>44.2%</t>
+          <t>28.8%</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3684,17 +3684,17 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>21.7</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>19.4</t>
+          <t>-12.5</t>
         </is>
       </c>
     </row>
@@ -3704,17 +3704,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Josh Richardson</t>
+          <t>Malcolm Brogdon</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3734,12 +3734,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>62.2%</t>
+          <t>44.2%</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3749,17 +3749,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>30.4</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>-8.0</t>
+          <t>19.4</t>
         </is>
       </c>
     </row>
@@ -3769,42 +3769,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>Josh Richardson</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>51.1%</t>
+          <t>62.2%</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.5</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3814,17 +3814,17 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>30.4</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-8.0</t>
         </is>
       </c>
     </row>
@@ -3834,42 +3834,42 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Myles Turner</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>28.8%</t>
+          <t>51.1%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -4354,42 +4354,42 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Eric Gordon</t>
+          <t>Dorian Finney-Smith</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>51.7%</t>
+          <t>41.9%</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-7.1</t>
         </is>
       </c>
     </row>
@@ -4419,42 +4419,42 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dorian Finney-Smith</t>
+          <t>Eric Gordon</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>41.9%</t>
+          <t>51.7%</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>-7.1</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -5394,22 +5394,22 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Gary Trent Jr.</t>
+          <t>Markelle Fultz</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -5424,12 +5424,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>43.4%</t>
+          <t>52.3%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>34.8</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -5459,22 +5459,22 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Markelle Fultz</t>
+          <t>Gary Trent Jr.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -5489,12 +5489,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>52.3%</t>
+          <t>43.4%</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5504,17 +5504,17 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>34.8</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>0.6</t>
         </is>
       </c>
     </row>
@@ -5784,42 +5784,42 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>44.7%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>40.8</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-6.7</t>
         </is>
       </c>
     </row>
@@ -5849,42 +5849,42 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>44.7%</t>
+          <t>49.4%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>40.8</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-6.7</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -6174,22 +6174,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>T.J. Warren</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -6199,17 +6199,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>43.6%</t>
+          <t>58.6%</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -6219,17 +6219,17 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>41.2</t>
+          <t>52.9</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>13.6</t>
         </is>
       </c>
     </row>
@@ -6239,22 +6239,22 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>T.J. Warren</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -6264,17 +6264,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>58.6%</t>
+          <t>43.6%</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -6284,17 +6284,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>52.9</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -6694,42 +6694,42 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Talen Horton-Tucker</t>
+          <t>Mario Hezonja</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -6739,17 +6739,17 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>34.9</t>
+          <t>31.4</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>-9.9</t>
+          <t>-0.1</t>
         </is>
       </c>
     </row>
@@ -6824,37 +6824,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mario Hezonja</t>
+          <t>Seth Curry</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>31.4</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>-0.1</t>
+          <t>-5.8</t>
         </is>
       </c>
     </row>
@@ -6889,17 +6889,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Seth Curry</t>
+          <t>Talen Horton-Tucker</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -6909,22 +6909,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>34.9</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>-5.8</t>
+          <t>-9.9</t>
         </is>
       </c>
     </row>
@@ -7214,22 +7214,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -7244,7 +7244,7 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>57.7%</t>
+          <t>40.5%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7264,12 +7264,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.6</t>
         </is>
       </c>
     </row>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Alec Burks</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>40.5%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -7329,12 +7329,12 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Alec Burks</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -7374,7 +7374,7 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>57.7%</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -7394,12 +7394,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -7799,42 +7799,42 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Wes Iwundu</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>64.2%</t>
+          <t>63.0%</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7844,17 +7844,17 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>41.0</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>-17.5</t>
         </is>
       </c>
     </row>
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Wes Iwundu</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>63.0%</t>
+          <t>64.2%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>23.5</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-17.5</t>
+          <t>0.4</t>
         </is>
       </c>
     </row>
@@ -8124,42 +8124,42 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Meyers Leonard</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -8169,17 +8169,17 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>-37.9</t>
         </is>
       </c>
     </row>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Khem Birch</t>
+          <t>BJ Johnson</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -8199,27 +8199,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8239,12 +8239,12 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>-3.1</t>
+          <t>-6.1</t>
         </is>
       </c>
     </row>
@@ -8254,17 +8254,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Antonius Cleveland</t>
+          <t>Rayjon Tucker</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8284,12 +8284,12 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -8299,17 +8299,17 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>32.6</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>-37.4</t>
         </is>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Jaylen Hoard</t>
+          <t>Wenyen Gabriel</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -8329,7 +8329,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8339,22 +8339,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>56.3%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>16.7</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>-19.8</t>
         </is>
       </c>
     </row>
@@ -8384,32 +8384,32 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Tyler Johnson</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>-37.9</t>
+          <t>5.6</t>
         </is>
       </c>
     </row>
@@ -8449,42 +8449,42 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BJ Johnson</t>
+          <t>Landry Shamet</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -8494,17 +8494,17 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>53.8</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>-6.1</t>
+          <t>12.6</t>
         </is>
       </c>
     </row>
@@ -8514,17 +8514,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Landry Shamet</t>
+          <t>Antonius Cleveland</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -8534,22 +8534,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -8559,17 +8559,17 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>53.8</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>32.6</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12.6</t>
+          <t>34.0</t>
         </is>
       </c>
     </row>
@@ -8579,12 +8579,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Tyler Johnson</t>
+          <t>Meyers Leonard</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8594,27 +8594,27 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8624,17 +8624,17 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>35.1</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>-1.7</t>
         </is>
       </c>
     </row>
@@ -8644,42 +8644,42 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Rayjon Tucker</t>
+          <t>Khem Birch</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>-37.4</t>
+          <t>-3.1</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Wenyen Gabriel</t>
+          <t>Jaylen Hoard</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8719,7 +8719,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -8729,7 +8729,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8739,12 +8739,12 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>56.3%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>16.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-19.8</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
@@ -9359,22 +9359,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Juwan Morgan</t>
+          <t>Nerlens Noel</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -9389,12 +9389,12 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>47.4%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -9424,22 +9424,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Nerlens Noel</t>
+          <t>Juwan Morgan</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -9454,12 +9454,12 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>47.4%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -9489,22 +9489,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -9519,32 +9519,32 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>55.6%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>2.5</t>
-        </is>
-      </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>63.6</t>
+          <t>-17.3</t>
         </is>
       </c>
     </row>
@@ -9554,22 +9554,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -9584,12 +9584,12 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>55.6%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.5</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-17.3</t>
+          <t>63.6</t>
         </is>
       </c>
     </row>
@@ -9619,42 +9619,42 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Mike Muscala</t>
+          <t>Patrick Beverley</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -9684,42 +9684,42 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Patrick Beverley</t>
+          <t>Mike Muscala</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Donta Hall</t>
+          <t>Jeremiah Martin</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9824,12 +9824,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -9844,12 +9844,12 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>58.3%</t>
+          <t>41.2%</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9859,17 +9859,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>57.1</t>
+          <t>71.4</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>38.2</t>
         </is>
       </c>
     </row>
@@ -9879,12 +9879,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Jeremiah Martin</t>
+          <t>Emmanuel Mudiay</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9909,12 +9909,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>41.2%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9924,17 +9924,17 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>71.4</t>
+          <t>57.1</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>17.5</t>
         </is>
       </c>
     </row>
@@ -9944,22 +9944,22 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Emmanuel Mudiay</t>
+          <t>Donta Hall</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>58.3%</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -9994,12 +9994,12 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>17.5</t>
+          <t>21.6</t>
         </is>
       </c>
     </row>
@@ -10204,42 +10204,42 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Doug McDermott</t>
+          <t>Javonte Green</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>72.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>11.3</t>
         </is>
       </c>
     </row>
@@ -10269,42 +10269,42 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Tyler Cook</t>
+          <t>Matt Thomas</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>58.1%</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10314,17 +10314,17 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>26.7</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-26.7</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -10334,17 +10334,17 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>Bruno Caboclo</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -10354,22 +10354,22 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>53.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -10379,17 +10379,17 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>25.8</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>-3.9</t>
+          <t>-25.8</t>
         </is>
       </c>
     </row>
@@ -10399,42 +10399,42 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Andre Roberson</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10444,17 +10444,17 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>35.5</t>
+          <t>40.7</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>-35.5</t>
+          <t>42.6</t>
         </is>
       </c>
     </row>
@@ -10464,42 +10464,42 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Boban Marjanovic</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>22.7%</t>
+          <t>53.3%</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10509,17 +10509,17 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>-4.2</t>
+          <t>-3.9</t>
         </is>
       </c>
     </row>
@@ -10529,22 +10529,22 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Patrick Patterson</t>
+          <t>Frank Mason III</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -10579,12 +10579,12 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-14.8</t>
+          <t>-36.5</t>
         </is>
       </c>
     </row>
@@ -10594,17 +10594,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Bruno Caboclo</t>
+          <t>Patrick Patterson</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -10644,12 +10644,12 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>25.8</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>-25.8</t>
+          <t>-14.8</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ersan Ilyasova</t>
+          <t>Boban Marjanovic</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>22.7%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-10.3</t>
+          <t>-4.2</t>
         </is>
       </c>
     </row>
@@ -10724,12 +10724,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Delon Wright</t>
+          <t>Doug McDermott</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -10739,27 +10739,27 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>72.7%</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10769,17 +10769,17 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>28.4</t>
+          <t>-11.0</t>
         </is>
       </c>
     </row>
@@ -10789,42 +10789,42 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Justin Anderson</t>
+          <t>Dion Waiters</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>61.5%</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10834,17 +10834,17 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>40.7</t>
+          <t>34.5</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>42.6</t>
+          <t>40.5</t>
         </is>
       </c>
     </row>
@@ -10854,22 +10854,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Frank Mason III</t>
+          <t>Andre Roberson</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -10884,7 +10884,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -10904,12 +10904,12 @@
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>35.5</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>-36.5</t>
+          <t>-35.5</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dion Waiters</t>
+          <t>Ersan Ilyasova</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>61.5%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>34.5</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>-10.3</t>
         </is>
       </c>
     </row>
@@ -10984,42 +10984,42 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Matt Thomas</t>
+          <t>Tyler Cook</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>58.1%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>26.7</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>-26.7</t>
         </is>
       </c>
     </row>
@@ -11049,42 +11049,42 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Javonte Green</t>
+          <t>Delon Wright</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>28.4</t>
         </is>
       </c>
     </row>
@@ -11439,17 +11439,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>JaKarr Sampson</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>43.8%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>30.5</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>5.9</t>
         </is>
       </c>
     </row>
@@ -11569,17 +11569,17 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>JaKarr Sampson</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -11599,7 +11599,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>43.8%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>30.5</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>5.9</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Lance Thomas</t>
+          <t>Troy Daniels</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>75.0%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>30.7</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
@@ -12089,22 +12089,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Jaylen Adams</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12119,7 +12119,7 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>60.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12139,12 +12139,12 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>46.7</t>
+          <t>33.3</t>
         </is>
       </c>
     </row>
@@ -12154,22 +12154,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Jaylen Adams</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
@@ -12184,7 +12184,7 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12204,12 +12204,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>46.7</t>
         </is>
       </c>
     </row>
@@ -12284,42 +12284,42 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Troy Daniels</t>
+          <t>Lance Thomas</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>75.0%</t>
+          <t>60.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -12329,17 +12329,17 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>30.7</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>-0.9</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Keita Bates-Diop</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -12379,12 +12379,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12394,17 +12394,17 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>-8.6</t>
         </is>
       </c>
     </row>
@@ -12479,42 +12479,42 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Solomon Hill</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12524,17 +12524,17 @@
       </c>
       <c r="K187" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-10.6</t>
+          <t>38.2</t>
         </is>
       </c>
     </row>
@@ -12544,17 +12544,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Keita Bates-Diop</t>
+          <t>Solomon Hill</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -12564,17 +12564,17 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>-8.6</t>
+          <t>-10.6</t>
         </is>
       </c>
     </row>
@@ -12609,22 +12609,22 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>J.J. Barea</t>
+          <t>Malcolm Miller</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>-36.8</t>
+          <t>-28.6</t>
         </is>
       </c>
     </row>
@@ -12674,22 +12674,22 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Tremont Waters</t>
+          <t>Sterling Brown</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -12704,12 +12704,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-38.0</t>
+          <t>65.7</t>
         </is>
       </c>
     </row>
@@ -12739,22 +12739,22 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Sterling Brown</t>
+          <t>Tremont Waters</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -12769,32 +12769,32 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>-38.0</t>
         </is>
       </c>
     </row>
@@ -12804,22 +12804,22 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Nigel Williams-Goss</t>
+          <t>Kyle O'Quinn</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -12834,7 +12834,7 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>62.7</t>
+          <t>63.4</t>
         </is>
       </c>
     </row>
@@ -12869,12 +12869,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Chris Boucher</t>
+          <t>Norvel Pelle</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -12884,27 +12884,27 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12914,17 +12914,17 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-44.4</t>
         </is>
       </c>
     </row>
@@ -12934,22 +12934,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Malcolm Miller</t>
+          <t>Joakim Noah</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -12984,12 +12984,12 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-28.6</t>
+          <t>-37.0</t>
         </is>
       </c>
     </row>
@@ -12999,22 +12999,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Joakim Noah</t>
+          <t>Chris Clemons</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -13049,12 +13049,12 @@
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>-37.0</t>
+          <t>-36.6</t>
         </is>
       </c>
     </row>
@@ -13064,22 +13064,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Kyle O'Quinn</t>
+          <t>J.J. Barea</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -13094,32 +13094,32 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J196" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>63.4</t>
+          <t>-36.8</t>
         </is>
       </c>
     </row>
@@ -13129,42 +13129,42 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DeMarre Carroll</t>
+          <t>Chris Boucher</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>29.5</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-29.5</t>
+          <t>-2.5</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Norvel Pelle</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13244,12 +13244,12 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>25.9</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-44.4</t>
+          <t>-25.9</t>
         </is>
       </c>
     </row>
@@ -13259,17 +13259,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Michael Frazier II</t>
+          <t>Nigel Williams-Goss</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13279,22 +13279,22 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>80.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13304,17 +13304,17 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>31.8</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>62.7</t>
         </is>
       </c>
     </row>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Chris Clemons</t>
+          <t>Michael Frazier II</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13334,7 +13334,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13344,22 +13344,22 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>80.0%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>31.8</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-36.6</t>
+          <t>-6.8</t>
         </is>
       </c>
     </row>
@@ -13389,22 +13389,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Tacko Fall</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -13439,12 +13439,12 @@
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>25.9</t>
+          <t>36.5</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-25.9</t>
+          <t>-36.5</t>
         </is>
       </c>
     </row>
@@ -13454,22 +13454,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Tacko Fall</t>
+          <t>DeMarre Carroll</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -13504,12 +13504,12 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>36.5</t>
+          <t>29.5</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>-36.5</t>
+          <t>-29.5</t>
         </is>
       </c>
     </row>
